--- a/R/files_03_data_import/file09_tibble.xlsx
+++ b/R/files_03_data_import/file09_tibble.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">vegetable</t>
   </si>
   <si>
-    <t xml:space="preserve">brocolli</t>
+    <t xml:space="preserve">broccoli</t>
   </si>
   <si>
     <t xml:space="preserve">cauliflower</t>
